--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_ETH-USDT_1d/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_ETH-USDT_1d/trades.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>13986</v>
+        <v>8741</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -461,7 +461,7 @@
         <v>0.1445551770082492</v>
       </c>
       <c r="F2">
-        <v>436.2362821525111</v>
+        <v>272.6398786139782</v>
       </c>
       <c r="G2">
         <v>0.275138987049808</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>9302</v>
+        <v>5814</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -493,7 +493,7 @@
         <v>0.1834948585404392</v>
       </c>
       <c r="F3">
-        <v>121.3779045881033</v>
+        <v>75.86445251292544</v>
       </c>
       <c r="G3">
         <v>0.07655539132811851</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>10160</v>
+        <v>6350</v>
       </c>
       <c r="B4">
         <v>83</v>
@@ -525,7 +525,7 @@
         <v>0.163505958325255</v>
       </c>
       <c r="F4">
-        <v>75.68242340419158</v>
+        <v>47.30151462761975</v>
       </c>
       <c r="G4">
         <v>0.0477329575208898</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>11927</v>
+        <v>7454</v>
       </c>
       <c r="B5">
         <v>104</v>
@@ -557,7 +557,7 @@
         <v>0.1579123530195218</v>
       </c>
       <c r="F5">
-        <v>297.9192340683833</v>
+        <v>186.1901543343447</v>
       </c>
       <c r="G5">
         <v>0.1879022207070122</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>11993</v>
+        <v>7496</v>
       </c>
       <c r="B6">
         <v>181</v>
@@ -589,7 +589,7 @@
         <v>0.1591152913700687</v>
       </c>
       <c r="F6">
-        <v>322.7823689930098</v>
+        <v>201.7490734571501</v>
       </c>
       <c r="G6">
         <v>0.2035855883791622</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>10181</v>
+        <v>6363</v>
       </c>
       <c r="B7">
         <v>244</v>
@@ -621,7 +621,7 @@
         <v>0.1611752570800941</v>
       </c>
       <c r="F7">
-        <v>55.48325998323938</v>
+        <v>34.67635627869091</v>
       </c>
       <c r="G7">
         <v>0.03499545164765694</v>
